--- a/codes/test_shell_output/testPRON_cat.xlsx
+++ b/codes/test_shell_output/testPRON_cat.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
   <si>
-    <t>1 &amp; conn &amp; 500</t>
+    <t>1 &amp; conn &amp; 1496</t>
   </si>
 </sst>
 </file>
@@ -376,314 +376,314 @@
     </row>
     <row r="3" spans="2:101">
       <c r="B3" s="1">
-        <v>64</v>
+        <v>279</v>
       </c>
     </row>
     <row r="4" spans="2:101">
       <c r="B4" s="1">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
     </row>
     <row r="5" spans="2:101">
       <c r="B5" s="1">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="C5" s="1">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="D5" s="1">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="E5" s="1">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="F5" s="1">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="G5" s="1">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="H5" s="1">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="I5" s="1">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="J5" s="1">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="K5" s="1">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="L5" s="1">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="M5" s="1">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="N5" s="1">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="O5" s="1">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="P5" s="1">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="Q5" s="1">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="R5" s="1">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="S5" s="1">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="T5" s="1">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="U5" s="1">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="V5" s="1">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="W5" s="1">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="X5" s="1">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="Y5" s="1">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="Z5" s="1">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="AA5" s="1">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="AB5" s="1">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="AC5" s="1">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="AD5" s="1">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="AE5" s="1">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="AF5" s="1">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="AG5" s="1">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="AH5" s="1">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="AI5" s="1">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="AJ5" s="1">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="AK5" s="1">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="AL5" s="1">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="AM5" s="1">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="AN5" s="1">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="AO5" s="1">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="AP5" s="1">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="AQ5" s="1">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="AR5" s="1">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="AS5" s="1">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="AT5" s="1">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="AU5" s="1">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="AV5" s="1">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="AW5" s="1">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="AX5" s="1">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="AY5" s="1">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="AZ5" s="1">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="BA5" s="1">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="BB5" s="1">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="BC5" s="1">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="BD5" s="1">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="BE5" s="1">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="BF5" s="1">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="BG5" s="1">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="BH5" s="1">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="BI5" s="1">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="BJ5" s="1">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="BK5" s="1">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="BL5" s="1">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="BM5" s="1">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="BN5" s="1">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="BO5" s="1">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="BP5" s="1">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="BQ5" s="1">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="BR5" s="1">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="BS5" s="1">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="BT5" s="1">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="BU5" s="1">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="BV5" s="1">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="BW5" s="1">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="BX5" s="1">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="BY5" s="1">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="BZ5" s="1">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="CA5" s="1">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="CB5" s="1">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="CC5" s="1">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="CD5" s="1">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="CE5" s="1">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="CF5" s="1">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="CG5" s="1">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="CH5" s="1">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="CI5" s="1">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="CJ5" s="1">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="CK5" s="1">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="CL5" s="1">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="CM5" s="1">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="CN5" s="1">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="CO5" s="1">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="CP5" s="1">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="CQ5" s="1">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="CR5" s="1">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="CS5" s="1">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="CT5" s="1">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="CU5" s="1">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="CV5" s="1">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="CW5" s="1">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
     </row>
     <row r="6" spans="2:101">
@@ -693,314 +693,314 @@
     </row>
     <row r="7" spans="2:101">
       <c r="B7" s="1">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="2:101">
       <c r="B8" s="1">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
     </row>
     <row r="9" spans="2:101">
       <c r="B9" s="1">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="C9" s="1">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="D9" s="1">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="E9" s="1">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="F9" s="1">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="G9" s="1">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="H9" s="1">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="I9" s="1">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="J9" s="1">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="K9" s="1">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="L9" s="1">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="M9" s="1">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="N9" s="1">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="O9" s="1">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="P9" s="1">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="Q9" s="1">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="R9" s="1">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="S9" s="1">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="T9" s="1">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="U9" s="1">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="V9" s="1">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="W9" s="1">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="X9" s="1">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="Y9" s="1">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="Z9" s="1">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="AA9" s="1">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="AB9" s="1">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="AC9" s="1">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="AD9" s="1">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="AE9" s="1">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="AF9" s="1">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="AG9" s="1">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="AH9" s="1">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="AI9" s="1">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="AJ9" s="1">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="AK9" s="1">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="AL9" s="1">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="AM9" s="1">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="AN9" s="1">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="AO9" s="1">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="AP9" s="1">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="AQ9" s="1">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="AR9" s="1">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="AS9" s="1">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="AT9" s="1">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="AU9" s="1">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="AV9" s="1">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="AW9" s="1">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="AX9" s="1">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="AY9" s="1">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="AZ9" s="1">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="BA9" s="1">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="BB9" s="1">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="BC9" s="1">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="BD9" s="1">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="BE9" s="1">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="BF9" s="1">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="BG9" s="1">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="BH9" s="1">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="BI9" s="1">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="BJ9" s="1">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="BK9" s="1">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="BL9" s="1">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="BM9" s="1">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="BN9" s="1">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="BO9" s="1">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="BP9" s="1">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="BQ9" s="1">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="BR9" s="1">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="BS9" s="1">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="BT9" s="1">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="BU9" s="1">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="BV9" s="1">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="BW9" s="1">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="BX9" s="1">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="BY9" s="1">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="BZ9" s="1">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="CA9" s="1">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="CB9" s="1">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="CC9" s="1">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="CD9" s="1">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="CE9" s="1">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="CF9" s="1">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="CG9" s="1">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="CH9" s="1">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="CI9" s="1">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="CJ9" s="1">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="CK9" s="1">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="CL9" s="1">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="CM9" s="1">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="CN9" s="1">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="CO9" s="1">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="CP9" s="1">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="CQ9" s="1">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="CR9" s="1">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="CS9" s="1">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="CT9" s="1">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="CU9" s="1">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="CV9" s="1">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="CW9" s="1">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
     </row>
   </sheetData>

--- a/codes/test_shell_output/testPRON_cat.xlsx
+++ b/codes/test_shell_output/testPRON_cat.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
   <si>
-    <t>1 &amp; conn &amp; 1496</t>
+    <t>1 &amp; conn &amp; 1500</t>
   </si>
 </sst>
 </file>
@@ -376,314 +376,314 @@
     </row>
     <row r="3" spans="2:101">
       <c r="B3" s="1">
-        <v>279</v>
+        <v>257</v>
       </c>
     </row>
     <row r="4" spans="2:101">
       <c r="B4" s="1">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
     </row>
     <row r="5" spans="2:101">
       <c r="B5" s="1">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="C5" s="1">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="D5" s="1">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="E5" s="1">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="F5" s="1">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="G5" s="1">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="H5" s="1">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="I5" s="1">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="J5" s="1">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="K5" s="1">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="L5" s="1">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="M5" s="1">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="N5" s="1">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="O5" s="1">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="P5" s="1">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="Q5" s="1">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="R5" s="1">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="S5" s="1">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="T5" s="1">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="U5" s="1">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="V5" s="1">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="W5" s="1">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="X5" s="1">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="Y5" s="1">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="Z5" s="1">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="AA5" s="1">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="AB5" s="1">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="AC5" s="1">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="AD5" s="1">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="AE5" s="1">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="AF5" s="1">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="AG5" s="1">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="AH5" s="1">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="AI5" s="1">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="AJ5" s="1">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="AK5" s="1">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="AL5" s="1">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="AM5" s="1">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="AN5" s="1">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="AO5" s="1">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="AP5" s="1">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="AQ5" s="1">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="AR5" s="1">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="AS5" s="1">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="AT5" s="1">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="AU5" s="1">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="AV5" s="1">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="AW5" s="1">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="AX5" s="1">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="AY5" s="1">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="AZ5" s="1">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="BA5" s="1">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="BB5" s="1">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="BC5" s="1">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="BD5" s="1">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="BE5" s="1">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="BF5" s="1">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="BG5" s="1">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="BH5" s="1">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="BI5" s="1">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="BJ5" s="1">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="BK5" s="1">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="BL5" s="1">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="BM5" s="1">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="BN5" s="1">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="BO5" s="1">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="BP5" s="1">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="BQ5" s="1">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="BR5" s="1">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="BS5" s="1">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="BT5" s="1">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="BU5" s="1">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="BV5" s="1">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="BW5" s="1">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="BX5" s="1">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="BY5" s="1">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="BZ5" s="1">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="CA5" s="1">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="CB5" s="1">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="CC5" s="1">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="CD5" s="1">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="CE5" s="1">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="CF5" s="1">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="CG5" s="1">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="CH5" s="1">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="CI5" s="1">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="CJ5" s="1">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="CK5" s="1">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="CL5" s="1">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="CM5" s="1">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="CN5" s="1">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="CO5" s="1">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="CP5" s="1">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="CQ5" s="1">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="CR5" s="1">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="CS5" s="1">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="CT5" s="1">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="CU5" s="1">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="CV5" s="1">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="CW5" s="1">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
     </row>
     <row r="6" spans="2:101">
@@ -693,314 +693,314 @@
     </row>
     <row r="7" spans="2:101">
       <c r="B7" s="1">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="2:101">
       <c r="B8" s="1">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
     </row>
     <row r="9" spans="2:101">
       <c r="B9" s="1">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="C9" s="1">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="D9" s="1">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="E9" s="1">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="F9" s="1">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="G9" s="1">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="H9" s="1">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="I9" s="1">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="J9" s="1">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="K9" s="1">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="L9" s="1">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="M9" s="1">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="N9" s="1">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="O9" s="1">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="P9" s="1">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="Q9" s="1">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="R9" s="1">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="S9" s="1">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="T9" s="1">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="U9" s="1">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="V9" s="1">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="W9" s="1">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="X9" s="1">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="Y9" s="1">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="Z9" s="1">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="AA9" s="1">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="AB9" s="1">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="AC9" s="1">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="AD9" s="1">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="AE9" s="1">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="AF9" s="1">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="AG9" s="1">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="AH9" s="1">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="AI9" s="1">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="AJ9" s="1">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="AK9" s="1">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="AL9" s="1">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="AM9" s="1">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="AN9" s="1">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="AO9" s="1">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="AP9" s="1">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="AQ9" s="1">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="AR9" s="1">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="AS9" s="1">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="AT9" s="1">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="AU9" s="1">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="AV9" s="1">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="AW9" s="1">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="AX9" s="1">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="AY9" s="1">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="AZ9" s="1">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="BA9" s="1">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="BB9" s="1">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="BC9" s="1">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="BD9" s="1">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="BE9" s="1">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="BF9" s="1">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="BG9" s="1">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="BH9" s="1">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="BI9" s="1">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="BJ9" s="1">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="BK9" s="1">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="BL9" s="1">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="BM9" s="1">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="BN9" s="1">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="BO9" s="1">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="BP9" s="1">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="BQ9" s="1">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="BR9" s="1">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="BS9" s="1">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="BT9" s="1">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="BU9" s="1">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="BV9" s="1">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="BW9" s="1">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="BX9" s="1">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="BY9" s="1">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="BZ9" s="1">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="CA9" s="1">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="CB9" s="1">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="CC9" s="1">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="CD9" s="1">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="CE9" s="1">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="CF9" s="1">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="CG9" s="1">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="CH9" s="1">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="CI9" s="1">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="CJ9" s="1">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="CK9" s="1">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="CL9" s="1">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="CM9" s="1">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="CN9" s="1">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="CO9" s="1">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="CP9" s="1">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="CQ9" s="1">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="CR9" s="1">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="CS9" s="1">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="CT9" s="1">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="CU9" s="1">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="CV9" s="1">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="CW9" s="1">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
     </row>
   </sheetData>

--- a/codes/test_shell_output/testPRON_cat.xlsx
+++ b/codes/test_shell_output/testPRON_cat.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
   <si>
-    <t>1 &amp; conn &amp; 1500</t>
+    <t>1 &amp; conn &amp; 739</t>
   </si>
 </sst>
 </file>
@@ -376,314 +376,314 @@
     </row>
     <row r="3" spans="2:101">
       <c r="B3" s="1">
-        <v>257</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="2:101">
       <c r="B4" s="1">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
     </row>
     <row r="5" spans="2:101">
       <c r="B5" s="1">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="C5" s="1">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="D5" s="1">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="E5" s="1">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="F5" s="1">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="G5" s="1">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="H5" s="1">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="I5" s="1">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="J5" s="1">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="K5" s="1">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="L5" s="1">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="M5" s="1">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="N5" s="1">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="O5" s="1">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="P5" s="1">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="Q5" s="1">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="R5" s="1">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="S5" s="1">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="T5" s="1">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="U5" s="1">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="V5" s="1">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="W5" s="1">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="X5" s="1">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="Y5" s="1">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="Z5" s="1">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="AA5" s="1">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="AB5" s="1">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="AC5" s="1">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="AD5" s="1">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="AE5" s="1">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="AF5" s="1">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="AG5" s="1">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="AH5" s="1">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="AI5" s="1">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="AJ5" s="1">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="AK5" s="1">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="AL5" s="1">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="AM5" s="1">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="AN5" s="1">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="AO5" s="1">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="AP5" s="1">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="AQ5" s="1">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="AR5" s="1">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="AS5" s="1">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="AT5" s="1">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="AU5" s="1">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="AV5" s="1">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="AW5" s="1">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="AX5" s="1">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="AY5" s="1">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="AZ5" s="1">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="BA5" s="1">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="BB5" s="1">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="BC5" s="1">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="BD5" s="1">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="BE5" s="1">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="BF5" s="1">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="BG5" s="1">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="BH5" s="1">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="BI5" s="1">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="BJ5" s="1">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="BK5" s="1">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="BL5" s="1">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="BM5" s="1">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="BN5" s="1">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="BO5" s="1">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="BP5" s="1">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="BQ5" s="1">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="BR5" s="1">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="BS5" s="1">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="BT5" s="1">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="BU5" s="1">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="BV5" s="1">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="BW5" s="1">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="BX5" s="1">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="BY5" s="1">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="BZ5" s="1">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="CA5" s="1">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="CB5" s="1">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="CC5" s="1">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="CD5" s="1">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="CE5" s="1">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="CF5" s="1">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="CG5" s="1">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="CH5" s="1">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="CI5" s="1">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="CJ5" s="1">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="CK5" s="1">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="CL5" s="1">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="CM5" s="1">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="CN5" s="1">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="CO5" s="1">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="CP5" s="1">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="CQ5" s="1">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="CR5" s="1">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="CS5" s="1">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="CT5" s="1">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="CU5" s="1">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="CV5" s="1">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="CW5" s="1">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
     </row>
     <row r="6" spans="2:101">
@@ -693,314 +693,314 @@
     </row>
     <row r="7" spans="2:101">
       <c r="B7" s="1">
-        <v>38</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="2:101">
       <c r="B8" s="1">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
     </row>
     <row r="9" spans="2:101">
       <c r="B9" s="1">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="C9" s="1">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="D9" s="1">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="E9" s="1">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="F9" s="1">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="G9" s="1">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="H9" s="1">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="I9" s="1">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="J9" s="1">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="K9" s="1">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L9" s="1">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="M9" s="1">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="N9" s="1">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="O9" s="1">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="P9" s="1">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="Q9" s="1">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="R9" s="1">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="S9" s="1">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="T9" s="1">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="U9" s="1">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="V9" s="1">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="W9" s="1">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="X9" s="1">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="Y9" s="1">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="Z9" s="1">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="AA9" s="1">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="AB9" s="1">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="AC9" s="1">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="AD9" s="1">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="AE9" s="1">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="AF9" s="1">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="AG9" s="1">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="AH9" s="1">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="AI9" s="1">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="AJ9" s="1">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="AK9" s="1">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="AL9" s="1">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="AM9" s="1">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="AN9" s="1">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="AO9" s="1">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="AP9" s="1">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="AQ9" s="1">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="AR9" s="1">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="AS9" s="1">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="AT9" s="1">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="AU9" s="1">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="AV9" s="1">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="AW9" s="1">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="AX9" s="1">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="AY9" s="1">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="AZ9" s="1">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="BA9" s="1">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="BB9" s="1">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="BC9" s="1">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="BD9" s="1">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="BE9" s="1">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="BF9" s="1">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="BG9" s="1">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="BH9" s="1">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="BI9" s="1">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="BJ9" s="1">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="BK9" s="1">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="BL9" s="1">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="BM9" s="1">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="BN9" s="1">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="BO9" s="1">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="BP9" s="1">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="BQ9" s="1">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="BR9" s="1">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="BS9" s="1">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="BT9" s="1">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="BU9" s="1">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="BV9" s="1">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="BW9" s="1">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="BX9" s="1">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="BY9" s="1">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="BZ9" s="1">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="CA9" s="1">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="CB9" s="1">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="CC9" s="1">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="CD9" s="1">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="CE9" s="1">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="CF9" s="1">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="CG9" s="1">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="CH9" s="1">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="CI9" s="1">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="CJ9" s="1">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="CK9" s="1">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="CL9" s="1">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="CM9" s="1">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="CN9" s="1">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="CO9" s="1">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="CP9" s="1">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="CQ9" s="1">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="CR9" s="1">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="CS9" s="1">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="CT9" s="1">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="CU9" s="1">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="CV9" s="1">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="CW9" s="1">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
     </row>
   </sheetData>
